--- a/walmart dataset.xlsx
+++ b/walmart dataset.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sreehari\Personal\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varshitha CSS\smart-retail-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{90F70DD3-4A7D-4952-9778-6A9A12741117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB692D2-8B63-4DD2-B596-57F5109044B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0A7C8-5AB9-4C2F-8478-DCF3098BD4CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -46,251 +51,248 @@
     <t>Discounted Price</t>
   </si>
   <si>
+    <t xml:space="preserve">Shelf Number </t>
+  </si>
+  <si>
     <t>Amul Milk 1L</t>
   </si>
   <si>
+    <t>Dairy</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
     <t>Surf Excel 1kg</t>
   </si>
   <si>
+    <t>Cleaning Supplies</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
     <t>Britannia Bread</t>
   </si>
   <si>
+    <t>Bakery</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>Nestle Maggi 70g</t>
   </si>
   <si>
+    <t>Instant Foods</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
     <t>Mother Dairy Curd</t>
   </si>
   <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
     <t>Vim Dishwash Bar</t>
   </si>
   <si>
+    <t>E2</t>
+  </si>
+  <si>
     <t>Aashirvaad Atta 5kg</t>
   </si>
   <si>
+    <t>E3</t>
+  </si>
+  <si>
     <t>Tide Pods</t>
   </si>
   <si>
+    <t>E4</t>
+  </si>
+  <si>
     <t>Ariel Detergent</t>
   </si>
   <si>
+    <t>B2</t>
+  </si>
+  <si>
     <t>Salt Packet</t>
   </si>
   <si>
+    <t>E5</t>
+  </si>
+  <si>
     <t>Harpic Toilet Cleaner</t>
   </si>
   <si>
+    <t>B3</t>
+  </si>
+  <si>
     <t>Parle-G Biscuits</t>
   </si>
   <si>
+    <t>Snacks</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
     <t>Ghee Tin</t>
   </si>
   <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
     <t>Wheat Flour 5kg</t>
   </si>
   <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
     <t>Kissan Jam</t>
   </si>
   <si>
+    <t>E8</t>
+  </si>
+  <si>
     <t>Dettol Handwash</t>
   </si>
   <si>
+    <t>E9</t>
+  </si>
+  <si>
     <t>Paneer Block</t>
   </si>
   <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
     <t>Mother Dairy Milk</t>
   </si>
   <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>E13</t>
+  </si>
+  <si>
     <t>Amul Cheese</t>
   </si>
   <si>
+    <t>E14</t>
+  </si>
+  <si>
+    <t>E15</t>
+  </si>
+  <si>
+    <t>E16</t>
+  </si>
+  <si>
     <t>Toor Dal 1kg</t>
   </si>
   <si>
+    <t>E17</t>
+  </si>
+  <si>
+    <t>E18</t>
+  </si>
+  <si>
+    <t>E19</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
     <t>Good Day Cookies</t>
   </si>
   <si>
+    <t>E20</t>
+  </si>
+  <si>
     <t>Marie Lite Biscuits</t>
   </si>
   <si>
+    <t>F3</t>
+  </si>
+  <si>
     <t>Oats Packet</t>
   </si>
   <si>
+    <t>E21</t>
+  </si>
+  <si>
     <t>MTR Poha</t>
   </si>
   <si>
+    <t>E22</t>
+  </si>
+  <si>
     <t>Corn Flakes</t>
   </si>
   <si>
+    <t>E23</t>
+  </si>
+  <si>
     <t>Basmati Rice 1kg</t>
   </si>
   <si>
+    <t>E24</t>
+  </si>
+  <si>
     <t>Moong Dal 1kg</t>
   </si>
   <si>
+    <t>E25</t>
+  </si>
+  <si>
     <t>Kellogg’s Chocos</t>
   </si>
   <si>
+    <t>E26</t>
+  </si>
+  <si>
     <t>Yippee Noodles</t>
   </si>
   <si>
+    <t>G1</t>
+  </si>
+  <si>
     <t>Rava Dosa Mix</t>
   </si>
   <si>
-    <t>Dairy</t>
-  </si>
-  <si>
-    <t>Cleaning Supplies</t>
-  </si>
-  <si>
-    <t>Bakery</t>
-  </si>
-  <si>
-    <t>Instant Foods</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
-  </si>
-  <si>
-    <t>Snacks</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C1</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
-  </si>
-  <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
-  </si>
-  <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>B7</t>
-  </si>
-  <si>
-    <t>E20</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
-    <t>E23</t>
-  </si>
-  <si>
-    <t>E24</t>
-  </si>
-  <si>
-    <t>E25</t>
-  </si>
-  <si>
-    <t>E26</t>
-  </si>
-  <si>
     <t>E27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shelf Number </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,12 +304,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,13 +349,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -372,9 +368,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -382,44 +378,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -447,14 +443,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -482,9 +495,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -493,182 +523,158 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E293E-D2B1-449D-A2C2-1B03E36C0393}">
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4.7265625" bestFit="1" customWidth="1"/>
@@ -703,7 +709,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -711,13 +717,13 @@
         <v>1001</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2">
         <v>45834</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -732,7 +738,7 @@
         <v>106.4</v>
       </c>
       <c r="I2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -740,13 +746,13 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2">
         <v>46091</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>21</v>
@@ -761,7 +767,7 @@
         <v>229</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
@@ -769,13 +775,13 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>45835</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>22</v>
@@ -790,7 +796,7 @@
         <v>99.4</v>
       </c>
       <c r="I4" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
@@ -798,13 +804,13 @@
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2">
         <v>45945</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>23</v>
@@ -819,7 +825,7 @@
         <v>64</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -827,13 +833,13 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C6" s="2">
         <v>45838</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>24</v>
@@ -848,7 +854,7 @@
         <v>109.2</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
@@ -856,13 +862,13 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>46419</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -877,7 +883,7 @@
         <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
@@ -885,13 +891,13 @@
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>45992</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>26</v>
@@ -906,7 +912,7 @@
         <v>238</v>
       </c>
       <c r="I8" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
@@ -914,13 +920,13 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2">
         <v>45977</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>27</v>
@@ -935,7 +941,7 @@
         <v>70</v>
       </c>
       <c r="I9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
@@ -943,13 +949,13 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>46220</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>28</v>
@@ -964,7 +970,7 @@
         <v>152</v>
       </c>
       <c r="I10" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
@@ -972,13 +978,13 @@
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>45795</v>
       </c>
       <c r="D11" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E11">
         <v>29</v>
@@ -993,7 +999,7 @@
         <v>119.7</v>
       </c>
       <c r="I11" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
@@ -1001,13 +1007,13 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>46383</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E12">
         <v>20</v>
@@ -1022,7 +1028,7 @@
         <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
@@ -1030,13 +1036,13 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>45603</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E13">
         <v>21</v>
@@ -1051,7 +1057,7 @@
         <v>184.8</v>
       </c>
       <c r="I13" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
@@ -1059,13 +1065,13 @@
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>45722</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>22</v>
@@ -1080,7 +1086,7 @@
         <v>86.8</v>
       </c>
       <c r="I14" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
@@ -1088,13 +1094,13 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <v>45958</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>23</v>
@@ -1109,7 +1115,7 @@
         <v>252</v>
       </c>
       <c r="I15" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
@@ -1117,13 +1123,13 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>45763</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>24</v>
@@ -1138,7 +1144,7 @@
         <v>95.9</v>
       </c>
       <c r="I16" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
@@ -1146,13 +1152,13 @@
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>46184</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>25</v>
@@ -1167,7 +1173,7 @@
         <v>166</v>
       </c>
       <c r="I17" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.35">
@@ -1175,13 +1181,13 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>45793</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>26</v>
@@ -1196,7 +1202,7 @@
         <v>104.3</v>
       </c>
       <c r="I18" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.35">
@@ -1204,13 +1210,13 @@
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2">
         <v>46283</v>
       </c>
       <c r="D19" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E19">
         <v>27</v>
@@ -1225,7 +1231,7 @@
         <v>153</v>
       </c>
       <c r="I19" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.35">
@@ -1233,13 +1239,13 @@
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
         <v>45560</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>28</v>
@@ -1254,7 +1260,7 @@
         <v>140.69999999999999</v>
       </c>
       <c r="I20" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
@@ -1262,13 +1268,13 @@
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>46221</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E21">
         <v>29</v>
@@ -1283,7 +1289,7 @@
         <v>180</v>
       </c>
       <c r="I21" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
@@ -1291,13 +1297,13 @@
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C22" s="2">
         <v>45816</v>
       </c>
       <c r="D22" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E22">
         <v>20</v>
@@ -1312,7 +1318,7 @@
         <v>139.30000000000001</v>
       </c>
       <c r="I22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.35">
@@ -1320,13 +1326,13 @@
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <v>46256</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>21</v>
@@ -1341,7 +1347,7 @@
         <v>102</v>
       </c>
       <c r="I23" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
@@ -1349,13 +1355,13 @@
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <v>46185</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>22</v>
@@ -1370,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="I24" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
@@ -1378,13 +1384,13 @@
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="C25" s="2">
         <v>45927</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E25">
         <v>23</v>
@@ -1399,7 +1405,7 @@
         <v>137</v>
       </c>
       <c r="I25" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
@@ -1407,13 +1413,13 @@
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C26" s="2">
         <v>45806</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E26">
         <v>24</v>
@@ -1428,7 +1434,7 @@
         <v>199.5</v>
       </c>
       <c r="I26" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
@@ -1436,13 +1442,13 @@
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
       <c r="C27" s="2">
         <v>45683</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E27">
         <v>25</v>
@@ -1457,7 +1463,7 @@
         <v>144.9</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
@@ -1465,13 +1471,13 @@
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2">
         <v>46102</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>26</v>
@@ -1486,7 +1492,7 @@
         <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.35">
@@ -1494,13 +1500,13 @@
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="C29" s="2">
         <v>46178</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E29">
         <v>27</v>
@@ -1515,7 +1521,7 @@
         <v>179</v>
       </c>
       <c r="I29" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.35">
@@ -1523,13 +1529,13 @@
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2">
         <v>45756</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E30">
         <v>28</v>
@@ -1544,7 +1550,7 @@
         <v>168.7</v>
       </c>
       <c r="I30" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.35">
@@ -1552,13 +1558,13 @@
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C31" s="2">
         <v>45738</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E31">
         <v>29</v>
@@ -1573,7 +1579,7 @@
         <v>165.9</v>
       </c>
       <c r="I31" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.35">
@@ -1581,13 +1587,13 @@
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2">
         <v>45833</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E32">
         <v>20</v>
@@ -1602,7 +1608,7 @@
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.35">
@@ -1610,13 +1616,13 @@
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
         <v>46228</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>21</v>
@@ -1631,7 +1637,7 @@
         <v>210</v>
       </c>
       <c r="I33" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.35">
@@ -1639,13 +1645,13 @@
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C34" s="2">
         <v>45858</v>
       </c>
       <c r="D34" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E34">
         <v>22</v>
@@ -1660,7 +1666,7 @@
         <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.35">
@@ -1668,13 +1674,13 @@
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2">
         <v>45835</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E35">
         <v>23</v>
@@ -1689,7 +1695,7 @@
         <v>74.900000000000006</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.35">
@@ -1697,13 +1703,13 @@
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2">
         <v>45870</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E36">
         <v>24</v>
@@ -1718,7 +1724,7 @@
         <v>71</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.35">
@@ -1726,13 +1732,13 @@
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C37" s="2">
         <v>45834</v>
       </c>
       <c r="D37" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E37">
         <v>25</v>
@@ -1747,7 +1753,7 @@
         <v>199.5</v>
       </c>
       <c r="I37" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.35">
@@ -1755,13 +1761,13 @@
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2">
         <v>45848</v>
       </c>
       <c r="D38" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E38">
         <v>26</v>
@@ -1776,7 +1782,7 @@
         <v>124.2</v>
       </c>
       <c r="I38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.35">
@@ -1784,13 +1790,13 @@
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="C39" s="2">
         <v>45838</v>
       </c>
       <c r="D39" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>27</v>
@@ -1805,7 +1811,7 @@
         <v>68.599999999999994</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.35">
@@ -1813,13 +1819,13 @@
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="C40" s="2">
         <v>45839</v>
       </c>
       <c r="D40" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E40">
         <v>28</v>
@@ -1834,7 +1840,7 @@
         <v>214.4</v>
       </c>
       <c r="I40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.35">
@@ -1842,13 +1848,13 @@
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2">
         <v>45991</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E41">
         <v>29</v>
@@ -1863,7 +1869,7 @@
         <v>108</v>
       </c>
       <c r="I41" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.35">
@@ -1871,13 +1877,13 @@
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C42" s="2">
         <v>45833</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>20</v>
@@ -1892,7 +1898,7 @@
         <v>153.30000000000001</v>
       </c>
       <c r="I42" t="s">
-        <v>47</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.35">
@@ -1900,13 +1906,13 @@
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C43" s="2">
         <v>45843</v>
       </c>
       <c r="D43" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E43">
         <v>21</v>
@@ -1921,14 +1927,10 @@
         <v>242.1</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C44" s="2"/>
+        <v>86</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/walmart dataset.xlsx
+++ b/walmart dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varshitha CSS\smart-retail-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB692D2-8B63-4DD2-B596-57F5109044B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{383E06E2-A492-4ABE-85DC-6E68BAD9374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8CC0A7C8-5AB9-4C2F-8478-DCF3098BD4CD}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C08238EF-F00E-407E-8121-57724C87F3CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -292,16 +292,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -317,7 +309,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -325,30 +317,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -663,11 +637,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{824E293E-D2B1-449D-A2C2-1B03E36C0393}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6465E6B1-803C-456C-9DE1-3F3C3B44B697}">
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,39 +650,39 @@
     <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -719,7 +693,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>45834</v>
       </c>
       <c r="D2" t="s">
@@ -748,7 +722,7 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>46091</v>
       </c>
       <c r="D3" t="s">
@@ -777,7 +751,7 @@
       <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>45835</v>
       </c>
       <c r="D4" t="s">
@@ -806,7 +780,7 @@
       <c r="B5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>45945</v>
       </c>
       <c r="D5" t="s">
@@ -835,7 +809,7 @@
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>45838</v>
       </c>
       <c r="D6" t="s">
@@ -864,7 +838,7 @@
       <c r="B7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>46419</v>
       </c>
       <c r="D7" t="s">
@@ -893,7 +867,7 @@
       <c r="B8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>45992</v>
       </c>
       <c r="D8" t="s">
@@ -922,7 +896,7 @@
       <c r="B9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>45977</v>
       </c>
       <c r="D9" t="s">
@@ -951,7 +925,7 @@
       <c r="B10" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>46220</v>
       </c>
       <c r="D10" t="s">
@@ -980,7 +954,7 @@
       <c r="B11" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>45795</v>
       </c>
       <c r="D11" t="s">
@@ -1009,7 +983,7 @@
       <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="1">
         <v>46383</v>
       </c>
       <c r="D12" t="s">
@@ -1038,7 +1012,7 @@
       <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>45603</v>
       </c>
       <c r="D13" t="s">
@@ -1067,7 +1041,7 @@
       <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" s="1">
         <v>45722</v>
       </c>
       <c r="D14" t="s">
@@ -1096,7 +1070,7 @@
       <c r="B15" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>45958</v>
       </c>
       <c r="D15" t="s">
@@ -1125,7 +1099,7 @@
       <c r="B16" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="1">
         <v>45763</v>
       </c>
       <c r="D16" t="s">
@@ -1154,7 +1128,7 @@
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="1">
         <v>46184</v>
       </c>
       <c r="D17" t="s">
@@ -1183,7 +1157,7 @@
       <c r="B18" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="1">
         <v>45793</v>
       </c>
       <c r="D18" t="s">
@@ -1212,7 +1186,7 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="1">
         <v>46283</v>
       </c>
       <c r="D19" t="s">
@@ -1241,7 +1215,7 @@
       <c r="B20" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="1">
         <v>45560</v>
       </c>
       <c r="D20" t="s">
@@ -1270,7 +1244,7 @@
       <c r="B21" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="1">
         <v>46221</v>
       </c>
       <c r="D21" t="s">
@@ -1299,7 +1273,7 @@
       <c r="B22" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="1">
         <v>45816</v>
       </c>
       <c r="D22" t="s">
@@ -1328,7 +1302,7 @@
       <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="1">
         <v>46256</v>
       </c>
       <c r="D23" t="s">
@@ -1357,7 +1331,7 @@
       <c r="B24" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="1">
         <v>46185</v>
       </c>
       <c r="D24" t="s">
@@ -1386,7 +1360,7 @@
       <c r="B25" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="1">
         <v>45927</v>
       </c>
       <c r="D25" t="s">
@@ -1415,7 +1389,7 @@
       <c r="B26" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C26" s="1">
         <v>45806</v>
       </c>
       <c r="D26" t="s">
@@ -1444,7 +1418,7 @@
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C27" s="1">
         <v>45683</v>
       </c>
       <c r="D27" t="s">
@@ -1473,7 +1447,7 @@
       <c r="B28" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C28" s="1">
         <v>46102</v>
       </c>
       <c r="D28" t="s">
@@ -1502,7 +1476,7 @@
       <c r="B29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C29" s="1">
         <v>46178</v>
       </c>
       <c r="D29" t="s">
@@ -1531,7 +1505,7 @@
       <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C30" s="1">
         <v>45756</v>
       </c>
       <c r="D30" t="s">
@@ -1560,7 +1534,7 @@
       <c r="B31" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C31" s="1">
         <v>45738</v>
       </c>
       <c r="D31" t="s">
@@ -1589,7 +1563,7 @@
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C32" s="1">
         <v>45833</v>
       </c>
       <c r="D32" t="s">
@@ -1618,7 +1592,7 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>46228</v>
       </c>
       <c r="D33" t="s">
@@ -1647,7 +1621,7 @@
       <c r="B34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="2">
+      <c r="C34" s="1">
         <v>45858</v>
       </c>
       <c r="D34" t="s">
@@ -1676,7 +1650,7 @@
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="2">
+      <c r="C35" s="1">
         <v>45835</v>
       </c>
       <c r="D35" t="s">
@@ -1705,7 +1679,7 @@
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="2">
+      <c r="C36" s="1">
         <v>45870</v>
       </c>
       <c r="D36" t="s">
@@ -1734,7 +1708,7 @@
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="2">
+      <c r="C37" s="1">
         <v>45834</v>
       </c>
       <c r="D37" t="s">
@@ -1763,7 +1737,7 @@
       <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="C38" s="2">
+      <c r="C38" s="1">
         <v>45848</v>
       </c>
       <c r="D38" t="s">
@@ -1792,7 +1766,7 @@
       <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="2">
+      <c r="C39" s="1">
         <v>45838</v>
       </c>
       <c r="D39" t="s">
@@ -1821,7 +1795,7 @@
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="2">
+      <c r="C40" s="1">
         <v>45839</v>
       </c>
       <c r="D40" t="s">
@@ -1850,7 +1824,7 @@
       <c r="B41" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="2">
+      <c r="C41" s="1">
         <v>45991</v>
       </c>
       <c r="D41" t="s">
@@ -1879,7 +1853,7 @@
       <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="2">
+      <c r="C42" s="1">
         <v>45833</v>
       </c>
       <c r="D42" t="s">
@@ -1908,7 +1882,7 @@
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" s="2">
+      <c r="C43" s="1">
         <v>45843</v>
       </c>
       <c r="D43" t="s">

--- a/walmart dataset.xlsx
+++ b/walmart dataset.xlsx
@@ -2,30 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varshitha CSS\smart-retail-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{383E06E2-A492-4ABE-85DC-6E68BAD9374A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8926B-9150-474D-B4DC-3105F63AC99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C08238EF-F00E-407E-8121-57724C87F3CB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
   <si>
     <t>SKU</t>
   </si>
@@ -33,25 +28,25 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
     <t>Expiry</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>MRP</t>
-  </si>
-  <si>
     <t>Discount %</t>
   </si>
   <si>
     <t>Discounted Price</t>
   </si>
   <si>
-    <t xml:space="preserve">Shelf Number </t>
+    <t>FlashSale</t>
   </si>
   <si>
     <t>Amul Milk 1L</t>
@@ -60,7 +55,10 @@
     <t>Dairy</t>
   </si>
   <si>
-    <t>A1</t>
+    <t>2025-06-25</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Surf Excel 1kg</t>
@@ -69,7 +67,7 @@
     <t>Cleaning Supplies</t>
   </si>
   <si>
-    <t>B1</t>
+    <t>2026-03-09</t>
   </si>
   <si>
     <t>Britannia Bread</t>
@@ -78,7 +76,7 @@
     <t>Bakery</t>
   </si>
   <si>
-    <t>C1</t>
+    <t>2025-06-26</t>
   </si>
   <si>
     <t>Nestle Maggi 70g</t>
@@ -87,7 +85,7 @@
     <t>Instant Foods</t>
   </si>
   <si>
-    <t>D1</t>
+    <t>2025-10-14</t>
   </si>
   <si>
     <t>Mother Dairy Curd</t>
@@ -96,43 +94,43 @@
     <t>Miscellaneous</t>
   </si>
   <si>
-    <t>E1</t>
+    <t>2025-06-29</t>
   </si>
   <si>
     <t>Vim Dishwash Bar</t>
   </si>
   <si>
-    <t>E2</t>
+    <t>2027-01-31</t>
   </si>
   <si>
     <t>Aashirvaad Atta 5kg</t>
   </si>
   <si>
-    <t>E3</t>
+    <t>2025-11-30</t>
   </si>
   <si>
     <t>Tide Pods</t>
   </si>
   <si>
-    <t>E4</t>
+    <t>2025-11-15</t>
   </si>
   <si>
     <t>Ariel Detergent</t>
   </si>
   <si>
-    <t>B2</t>
+    <t>2026-07-16</t>
   </si>
   <si>
     <t>Salt Packet</t>
   </si>
   <si>
-    <t>E5</t>
+    <t>2025-05-17</t>
   </si>
   <si>
     <t>Harpic Toilet Cleaner</t>
   </si>
   <si>
-    <t>B3</t>
+    <t>2026-12-26</t>
   </si>
   <si>
     <t>Parle-G Biscuits</t>
@@ -141,151 +139,139 @@
     <t>Snacks</t>
   </si>
   <si>
-    <t>F1</t>
+    <t>2024-11-06</t>
   </si>
   <si>
     <t>Ghee Tin</t>
   </si>
   <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2</t>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>2025-10-27</t>
   </si>
   <si>
     <t>Wheat Flour 5kg</t>
   </si>
   <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>B4</t>
+    <t>2025-04-15</t>
+  </si>
+  <si>
+    <t>2026-06-10</t>
   </si>
   <si>
     <t>Kissan Jam</t>
   </si>
   <si>
-    <t>E8</t>
+    <t>2025-05-15</t>
   </si>
   <si>
     <t>Dettol Handwash</t>
   </si>
   <si>
-    <t>E9</t>
+    <t>2026-09-17</t>
   </si>
   <si>
     <t>Paneer Block</t>
   </si>
   <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>B5</t>
+    <t>2024-09-24</t>
+  </si>
+  <si>
+    <t>2026-07-17</t>
   </si>
   <si>
     <t>Mother Dairy Milk</t>
   </si>
   <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>E13</t>
+    <t>2025-06-07</t>
+  </si>
+  <si>
+    <t>2026-08-21</t>
+  </si>
+  <si>
+    <t>2026-06-11</t>
+  </si>
+  <si>
+    <t>2025-09-26</t>
+  </si>
+  <si>
+    <t>2025-05-28</t>
   </si>
   <si>
     <t>Amul Cheese</t>
   </si>
   <si>
-    <t>E14</t>
-  </si>
-  <si>
-    <t>E15</t>
-  </si>
-  <si>
-    <t>E16</t>
+    <t>2025-01-25</t>
+  </si>
+  <si>
+    <t>2026-03-20</t>
+  </si>
+  <si>
+    <t>2026-06-04</t>
   </si>
   <si>
     <t>Toor Dal 1kg</t>
   </si>
   <si>
-    <t>E17</t>
-  </si>
-  <si>
-    <t>E18</t>
-  </si>
-  <si>
-    <t>E19</t>
-  </si>
-  <si>
-    <t>B7</t>
+    <t>2025-04-08</t>
+  </si>
+  <si>
+    <t>2025-03-21</t>
+  </si>
+  <si>
+    <t>2025-06-24</t>
+  </si>
+  <si>
+    <t>2026-07-24</t>
   </si>
   <si>
     <t>Good Day Cookies</t>
   </si>
   <si>
-    <t>E20</t>
+    <t>2025-07-19</t>
   </si>
   <si>
     <t>Marie Lite Biscuits</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
     <t>Oats Packet</t>
   </si>
   <si>
-    <t>E21</t>
+    <t>2025-07-31</t>
   </si>
   <si>
     <t>MTR Poha</t>
   </si>
   <si>
-    <t>E22</t>
-  </si>
-  <si>
     <t>Corn Flakes</t>
   </si>
   <si>
-    <t>E23</t>
+    <t>2025-07-09</t>
   </si>
   <si>
     <t>Basmati Rice 1kg</t>
   </si>
   <si>
-    <t>E24</t>
-  </si>
-  <si>
     <t>Moong Dal 1kg</t>
   </si>
   <si>
-    <t>E25</t>
+    <t>2025-06-30</t>
   </si>
   <si>
     <t>Kellogg’s Chocos</t>
   </si>
   <si>
-    <t>E26</t>
+    <t>2025-11-29</t>
   </si>
   <si>
     <t>Yippee Noodles</t>
   </si>
   <si>
-    <t>G1</t>
-  </si>
-  <si>
     <t>Rava Dosa Mix</t>
   </si>
   <si>
-    <t>E27</t>
+    <t>2025-07-04</t>
   </si>
 </sst>
 </file>
@@ -294,7 +280,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -321,15 +307,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -637,27 +622,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6465E6B1-803C-456C-9DE1-3F3C3B44B697}">
-  <dimension ref="A1:I43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.58203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,24 +671,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1">
-        <v>45834</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
       <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
         <v>152</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
       <c r="G2">
         <v>30</v>
@@ -711,28 +696,28 @@
       <c r="H2">
         <v>106.4</v>
       </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1">
-        <v>46091</v>
-      </c>
-      <c r="D3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
       <c r="E3">
-        <v>21</v>
-      </c>
-      <c r="F3">
         <v>229</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -740,28 +725,28 @@
       <c r="H3">
         <v>229</v>
       </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <v>45835</v>
-      </c>
-      <c r="D4" t="s">
         <v>16</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>22</v>
+      </c>
       <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
         <v>142</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -769,28 +754,28 @@
       <c r="H4">
         <v>99.4</v>
       </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="1">
-        <v>45945</v>
-      </c>
-      <c r="D5" t="s">
         <v>19</v>
       </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
       <c r="E5">
-        <v>23</v>
-      </c>
-      <c r="F5">
         <v>64</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -798,28 +783,28 @@
       <c r="H5">
         <v>64</v>
       </c>
-      <c r="I5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1">
-        <v>45838</v>
-      </c>
-      <c r="D6" t="s">
         <v>22</v>
       </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
       <c r="E6">
+        <v>156</v>
+      </c>
+      <c r="F6" t="s">
         <v>24</v>
-      </c>
-      <c r="F6">
-        <v>156</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -827,28 +812,28 @@
       <c r="H6">
         <v>109.2</v>
       </c>
-      <c r="I6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="1">
-        <v>46419</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>25</v>
-      </c>
-      <c r="F7">
         <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>26</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -856,28 +841,28 @@
       <c r="H7">
         <v>121</v>
       </c>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
         <v>26</v>
       </c>
-      <c r="C8" s="1">
-        <v>45992</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>26</v>
-      </c>
-      <c r="F8">
         <v>238</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -885,28 +870,28 @@
       <c r="H8">
         <v>238</v>
       </c>
-      <c r="I8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1">
-        <v>45977</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9">
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>27</v>
-      </c>
-      <c r="F9">
         <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -914,28 +899,28 @@
       <c r="H9">
         <v>70</v>
       </c>
-      <c r="I9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="1">
-        <v>46220</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>28</v>
       </c>
       <c r="E10">
-        <v>28</v>
-      </c>
-      <c r="F10">
         <v>152</v>
+      </c>
+      <c r="F10" t="s">
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -943,28 +928,28 @@
       <c r="H10">
         <v>152</v>
       </c>
-      <c r="I10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="1">
-        <v>45795</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11">
+        <v>29</v>
       </c>
       <c r="E11">
-        <v>29</v>
-      </c>
-      <c r="F11">
         <v>171</v>
+      </c>
+      <c r="F11" t="s">
+        <v>34</v>
       </c>
       <c r="G11">
         <v>30</v>
@@ -972,28 +957,28 @@
       <c r="H11">
         <v>119.7</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="1">
-        <v>46383</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="F12">
         <v>260</v>
+      </c>
+      <c r="F12" t="s">
+        <v>36</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1001,28 +986,28 @@
       <c r="H12">
         <v>260</v>
       </c>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1">
-        <v>45603</v>
-      </c>
-      <c r="D13" t="s">
         <v>37</v>
       </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13">
+        <v>21</v>
+      </c>
       <c r="E13">
-        <v>21</v>
-      </c>
-      <c r="F13">
         <v>264</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -1030,28 +1015,28 @@
       <c r="H13">
         <v>184.8</v>
       </c>
-      <c r="I13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="1">
-        <v>45722</v>
-      </c>
-      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>22</v>
-      </c>
-      <c r="F14">
         <v>124</v>
+      </c>
+      <c r="F14" t="s">
+        <v>41</v>
       </c>
       <c r="G14">
         <v>30</v>
@@ -1059,28 +1044,28 @@
       <c r="H14">
         <v>86.8</v>
       </c>
-      <c r="I14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="1">
-        <v>45958</v>
-      </c>
-      <c r="D15" t="s">
         <v>37</v>
       </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15">
+        <v>23</v>
+      </c>
       <c r="E15">
-        <v>23</v>
-      </c>
-      <c r="F15">
         <v>252</v>
+      </c>
+      <c r="F15" t="s">
+        <v>42</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1088,28 +1073,28 @@
       <c r="H15">
         <v>252</v>
       </c>
-      <c r="I15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1">
-        <v>45763</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>24</v>
-      </c>
-      <c r="F16">
         <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
       </c>
       <c r="G16">
         <v>30</v>
@@ -1117,28 +1102,28 @@
       <c r="H16">
         <v>95.9</v>
       </c>
-      <c r="I16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="1">
-        <v>46184</v>
-      </c>
-      <c r="D17" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
       </c>
       <c r="E17">
-        <v>25</v>
-      </c>
-      <c r="F17">
         <v>166</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1146,28 +1131,28 @@
       <c r="H17">
         <v>166</v>
       </c>
-      <c r="I17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="1">
-        <v>45793</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18">
+        <v>26</v>
       </c>
       <c r="E18">
-        <v>26</v>
-      </c>
-      <c r="F18">
         <v>149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -1175,28 +1160,28 @@
       <c r="H18">
         <v>104.3</v>
       </c>
-      <c r="I18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" s="1">
-        <v>46283</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19">
+        <v>27</v>
       </c>
       <c r="E19">
-        <v>27</v>
-      </c>
-      <c r="F19">
         <v>153</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1204,28 +1189,28 @@
       <c r="H19">
         <v>153</v>
       </c>
-      <c r="I19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="1">
-        <v>45560</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
+        <v>50</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>28</v>
       </c>
       <c r="E20">
-        <v>28</v>
-      </c>
-      <c r="F20">
         <v>201</v>
+      </c>
+      <c r="F20" t="s">
+        <v>51</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -1233,28 +1218,28 @@
       <c r="H20">
         <v>140.69999999999999</v>
       </c>
-      <c r="I20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1">
-        <v>46221</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
       </c>
       <c r="E21">
-        <v>29</v>
-      </c>
-      <c r="F21">
         <v>180</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1262,28 +1247,28 @@
       <c r="H21">
         <v>180</v>
       </c>
-      <c r="I21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="1">
-        <v>45816</v>
-      </c>
-      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
         <v>10</v>
       </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
       <c r="E22">
-        <v>20</v>
-      </c>
-      <c r="F22">
         <v>199</v>
+      </c>
+      <c r="F22" t="s">
+        <v>54</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -1291,28 +1276,28 @@
       <c r="H22">
         <v>139.30000000000001</v>
       </c>
-      <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="1">
-        <v>46256</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>21</v>
-      </c>
-      <c r="F23">
         <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>55</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1320,28 +1305,28 @@
       <c r="H23">
         <v>102</v>
       </c>
-      <c r="I23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="1">
-        <v>46185</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24">
+        <v>22</v>
       </c>
       <c r="E24">
-        <v>22</v>
-      </c>
-      <c r="F24">
         <v>51</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1349,28 +1334,28 @@
       <c r="H24">
         <v>51</v>
       </c>
-      <c r="I24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="1">
-        <v>45927</v>
-      </c>
-      <c r="D25" t="s">
-        <v>22</v>
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
+        <v>23</v>
       </c>
       <c r="E25">
-        <v>23</v>
-      </c>
-      <c r="F25">
         <v>137</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1378,28 +1363,28 @@
       <c r="H25">
         <v>137</v>
       </c>
-      <c r="I25" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="1">
-        <v>45806</v>
-      </c>
-      <c r="D26" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>24</v>
-      </c>
-      <c r="F26">
         <v>285</v>
+      </c>
+      <c r="F26" t="s">
+        <v>58</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -1407,28 +1392,28 @@
       <c r="H26">
         <v>199.5</v>
       </c>
-      <c r="I26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I26" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" s="1">
-        <v>45683</v>
-      </c>
-      <c r="D27" t="s">
-        <v>22</v>
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>25</v>
       </c>
       <c r="E27">
-        <v>25</v>
-      </c>
-      <c r="F27">
         <v>207</v>
+      </c>
+      <c r="F27" t="s">
+        <v>60</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -1436,28 +1421,28 @@
       <c r="H27">
         <v>144.9</v>
       </c>
-      <c r="I27" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="1">
-        <v>46102</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28">
+        <v>26</v>
       </c>
       <c r="E28">
-        <v>26</v>
-      </c>
-      <c r="F28">
         <v>87</v>
+      </c>
+      <c r="F28" t="s">
+        <v>61</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1465,28 +1450,28 @@
       <c r="H28">
         <v>87</v>
       </c>
-      <c r="I28" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="1">
-        <v>46178</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
+        <v>48</v>
+      </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29">
+        <v>27</v>
       </c>
       <c r="E29">
-        <v>27</v>
-      </c>
-      <c r="F29">
         <v>179</v>
+      </c>
+      <c r="F29" t="s">
+        <v>62</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1494,28 +1479,28 @@
       <c r="H29">
         <v>179</v>
       </c>
-      <c r="I29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="1">
-        <v>45756</v>
-      </c>
-      <c r="D30" t="s">
-        <v>22</v>
+        <v>63</v>
+      </c>
+      <c r="C30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>28</v>
       </c>
       <c r="E30">
-        <v>28</v>
-      </c>
-      <c r="F30">
         <v>241</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -1523,28 +1508,28 @@
       <c r="H30">
         <v>168.7</v>
       </c>
-      <c r="I30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1">
-        <v>45738</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>29</v>
       </c>
       <c r="E31">
-        <v>29</v>
-      </c>
-      <c r="F31">
         <v>237</v>
+      </c>
+      <c r="F31" t="s">
+        <v>65</v>
       </c>
       <c r="G31">
         <v>30</v>
@@ -1552,28 +1537,28 @@
       <c r="H31">
         <v>165.9</v>
       </c>
-      <c r="I31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="1">
-        <v>45833</v>
-      </c>
-      <c r="D32" t="s">
-        <v>22</v>
+        <v>40</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>20</v>
       </c>
       <c r="E32">
-        <v>20</v>
-      </c>
-      <c r="F32">
         <v>70</v>
+      </c>
+      <c r="F32" t="s">
+        <v>66</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -1581,28 +1566,28 @@
       <c r="H32">
         <v>49</v>
       </c>
-      <c r="I32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="1">
-        <v>46228</v>
-      </c>
-      <c r="D33" t="s">
-        <v>13</v>
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="D33">
+        <v>21</v>
       </c>
       <c r="E33">
-        <v>21</v>
-      </c>
-      <c r="F33">
         <v>210</v>
+      </c>
+      <c r="F33" t="s">
+        <v>67</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1610,28 +1595,28 @@
       <c r="H33">
         <v>210</v>
       </c>
-      <c r="I33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="1">
-        <v>45858</v>
-      </c>
-      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34">
         <v>22</v>
       </c>
       <c r="E34">
-        <v>22</v>
-      </c>
-      <c r="F34">
         <v>253</v>
+      </c>
+      <c r="F34" t="s">
+        <v>69</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1639,28 +1624,28 @@
       <c r="H34">
         <v>253</v>
       </c>
-      <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1">
-        <v>45835</v>
-      </c>
-      <c r="D35" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
       </c>
       <c r="E35">
-        <v>23</v>
-      </c>
-      <c r="F35">
         <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
       </c>
       <c r="G35">
         <v>30</v>
@@ -1668,28 +1653,28 @@
       <c r="H35">
         <v>74.900000000000006</v>
       </c>
-      <c r="I35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" s="1">
-        <v>45870</v>
-      </c>
-      <c r="D36" t="s">
-        <v>22</v>
+      <c r="C36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
       </c>
       <c r="E36">
-        <v>24</v>
-      </c>
-      <c r="F36">
         <v>71</v>
+      </c>
+      <c r="F36" t="s">
+        <v>72</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1697,28 +1682,28 @@
       <c r="H36">
         <v>71</v>
       </c>
-      <c r="I36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="1">
-        <v>45834</v>
-      </c>
-      <c r="D37" t="s">
-        <v>22</v>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
       </c>
       <c r="E37">
-        <v>25</v>
-      </c>
-      <c r="F37">
         <v>285</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
       </c>
       <c r="G37">
         <v>30</v>
@@ -1726,28 +1711,28 @@
       <c r="H37">
         <v>199.5</v>
       </c>
-      <c r="I37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38">
+        <v>26</v>
+      </c>
+      <c r="E38">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="C38" s="1">
-        <v>45848</v>
-      </c>
-      <c r="D38" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38">
-        <v>26</v>
-      </c>
-      <c r="F38">
-        <v>138</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -1755,28 +1740,28 @@
       <c r="H38">
         <v>124.2</v>
       </c>
-      <c r="I38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1">
-        <v>45838</v>
-      </c>
-      <c r="D39" t="s">
-        <v>22</v>
+        <v>76</v>
+      </c>
+      <c r="C39" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39">
+        <v>27</v>
       </c>
       <c r="E39">
-        <v>27</v>
-      </c>
-      <c r="F39">
         <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>24</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1784,28 +1769,28 @@
       <c r="H39">
         <v>68.599999999999994</v>
       </c>
-      <c r="I39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="1">
-        <v>45839</v>
-      </c>
-      <c r="D40" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40">
+        <v>28</v>
       </c>
       <c r="E40">
-        <v>28</v>
-      </c>
-      <c r="F40">
         <v>268</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -1813,28 +1798,28 @@
       <c r="H40">
         <v>214.4</v>
       </c>
-      <c r="I40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" s="1">
-        <v>45991</v>
-      </c>
-      <c r="D41" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>29</v>
       </c>
       <c r="E41">
-        <v>29</v>
-      </c>
-      <c r="F41">
         <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>80</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1842,28 +1827,28 @@
       <c r="H41">
         <v>108</v>
       </c>
-      <c r="I41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" s="1">
-        <v>45833</v>
-      </c>
-      <c r="D42" t="s">
-        <v>19</v>
+        <v>81</v>
+      </c>
+      <c r="C42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D42">
+        <v>20</v>
       </c>
       <c r="E42">
-        <v>20</v>
-      </c>
-      <c r="F42">
         <v>219</v>
+      </c>
+      <c r="F42" t="s">
+        <v>66</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -1871,28 +1856,28 @@
       <c r="H42">
         <v>153.30000000000001</v>
       </c>
-      <c r="I42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="I42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="1">
-        <v>45843</v>
-      </c>
-      <c r="D43" t="s">
-        <v>22</v>
+        <v>82</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>21</v>
       </c>
       <c r="E43">
-        <v>21</v>
-      </c>
-      <c r="F43">
         <v>269</v>
+      </c>
+      <c r="F43" t="s">
+        <v>83</v>
       </c>
       <c r="G43">
         <v>10</v>
@@ -1900,11 +1885,15 @@
       <c r="H43">
         <v>242.1</v>
       </c>
-      <c r="I43" t="s">
-        <v>86</v>
-      </c>
-    </row>
+      <c r="I43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="A1:F1 A16:F43 A2:F2 A3:F3 A4:F4 A5:F5 A6:F6 A7:F7 A8:F8 A9:F9 A10:F10 A11:F11 A12:F12 A13:F13 A14:F14 A15:F15" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/walmart dataset.xlsx
+++ b/walmart dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Varshitha CSS\smart-retail-backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A8926B-9150-474D-B4DC-3105F63AC99D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F6B90E8-2116-43CF-AF4F-4C81A75BD8F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
   <si>
     <t>SKU</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>2025-06-25</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Surf Excel 1kg</t>
@@ -623,26 +620,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.58203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.9140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.4140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.4140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.4140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -671,7 +669,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -700,15 +698,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1002</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
       </c>
       <c r="D3">
         <v>21</v>
@@ -717,7 +715,7 @@
         <v>229</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -729,15 +727,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1003</v>
       </c>
       <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
       </c>
       <c r="D4">
         <v>22</v>
@@ -746,7 +744,7 @@
         <v>142</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4">
         <v>30</v>
@@ -758,15 +756,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1004</v>
       </c>
       <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
       </c>
       <c r="D5">
         <v>23</v>
@@ -775,7 +773,7 @@
         <v>64</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -787,15 +785,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6">
         <v>24</v>
@@ -804,7 +802,7 @@
         <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6">
         <v>30</v>
@@ -816,15 +814,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>25</v>
@@ -833,7 +831,7 @@
         <v>121</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -845,15 +843,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>1007</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8">
         <v>26</v>
@@ -862,7 +860,7 @@
         <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -874,15 +872,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9">
         <v>27</v>
@@ -891,7 +889,7 @@
         <v>70</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -903,15 +901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>1009</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10">
         <v>28</v>
@@ -920,7 +918,7 @@
         <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -932,15 +930,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1010</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11">
         <v>29</v>
@@ -949,7 +947,7 @@
         <v>171</v>
       </c>
       <c r="F11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G11">
         <v>30</v>
@@ -961,15 +959,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12">
         <v>20</v>
@@ -978,7 +976,7 @@
         <v>260</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -990,15 +988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>1012</v>
       </c>
       <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
       <c r="D13">
         <v>21</v>
@@ -1007,7 +1005,7 @@
         <v>264</v>
       </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G13">
         <v>30</v>
@@ -1019,15 +1017,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>1013</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>22</v>
@@ -1036,7 +1034,7 @@
         <v>124</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14">
         <v>30</v>
@@ -1048,15 +1046,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>1014</v>
       </c>
       <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
         <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>38</v>
       </c>
       <c r="D15">
         <v>23</v>
@@ -1065,7 +1063,7 @@
         <v>252</v>
       </c>
       <c r="F15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1077,15 +1075,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>24</v>
@@ -1094,7 +1092,7 @@
         <v>137</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>30</v>
@@ -1106,15 +1104,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1016</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17">
         <v>25</v>
@@ -1123,7 +1121,7 @@
         <v>166</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1135,15 +1133,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>26</v>
@@ -1152,7 +1150,7 @@
         <v>149</v>
       </c>
       <c r="F18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18">
         <v>30</v>
@@ -1164,15 +1162,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19">
         <v>27</v>
@@ -1181,7 +1179,7 @@
         <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1193,15 +1191,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>1019</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20">
         <v>28</v>
@@ -1210,7 +1208,7 @@
         <v>201</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G20">
         <v>30</v>
@@ -1222,15 +1220,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <v>29</v>
@@ -1239,7 +1237,7 @@
         <v>180</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1251,12 +1249,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>10</v>
@@ -1268,7 +1266,7 @@
         <v>199</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22">
         <v>30</v>
@@ -1280,15 +1278,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>1022</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D23">
         <v>21</v>
@@ -1297,7 +1295,7 @@
         <v>102</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1309,15 +1307,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24">
         <v>22</v>
@@ -1326,7 +1324,7 @@
         <v>51</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1338,15 +1336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1024</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D25">
         <v>23</v>
@@ -1355,7 +1353,7 @@
         <v>137</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1367,15 +1365,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>1025</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26">
         <v>24</v>
@@ -1384,7 +1382,7 @@
         <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26">
         <v>30</v>
@@ -1396,15 +1394,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <v>25</v>
@@ -1413,7 +1411,7 @@
         <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27">
         <v>30</v>
@@ -1425,15 +1423,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1027</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28">
         <v>26</v>
@@ -1442,7 +1440,7 @@
         <v>87</v>
       </c>
       <c r="F28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1454,15 +1452,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>1028</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D29">
         <v>27</v>
@@ -1471,7 +1469,7 @@
         <v>179</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -1483,15 +1481,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1029</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <v>28</v>
@@ -1500,7 +1498,7 @@
         <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30">
         <v>30</v>
@@ -1512,15 +1510,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D31">
         <v>29</v>
@@ -1529,7 +1527,7 @@
         <v>237</v>
       </c>
       <c r="F31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G31">
         <v>30</v>
@@ -1541,15 +1539,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>1031</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>20</v>
@@ -1558,7 +1556,7 @@
         <v>70</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G32">
         <v>30</v>
@@ -1570,15 +1568,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33">
         <v>21</v>
@@ -1587,7 +1585,7 @@
         <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1599,15 +1597,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34">
         <v>22</v>
@@ -1616,7 +1614,7 @@
         <v>253</v>
       </c>
       <c r="F34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G34">
         <v>0</v>
@@ -1628,15 +1626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>1034</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35">
         <v>23</v>
@@ -1645,7 +1643,7 @@
         <v>107</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35">
         <v>30</v>
@@ -1657,15 +1655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D36">
         <v>24</v>
@@ -1674,7 +1672,7 @@
         <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -1686,15 +1684,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>1036</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D37">
         <v>25</v>
@@ -1715,15 +1713,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1037</v>
       </c>
       <c r="B38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D38">
         <v>26</v>
@@ -1732,7 +1730,7 @@
         <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G38">
         <v>10</v>
@@ -1744,15 +1742,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39">
         <v>27</v>
@@ -1761,7 +1759,7 @@
         <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G39">
         <v>30</v>
@@ -1773,15 +1771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>28</v>
@@ -1790,7 +1788,7 @@
         <v>268</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G40">
         <v>20</v>
@@ -1802,15 +1800,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>1040</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41">
         <v>29</v>
@@ -1819,7 +1817,7 @@
         <v>108</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1831,15 +1829,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>20</v>
@@ -1848,7 +1846,7 @@
         <v>219</v>
       </c>
       <c r="F42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G42">
         <v>30</v>
@@ -1860,15 +1858,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>21</v>
@@ -1877,7 +1875,7 @@
         <v>269</v>
       </c>
       <c r="F43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G43">
         <v>10</v>
@@ -1889,7 +1887,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="15.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
